--- a/data/financial_statements/socf/WBA.xlsx
+++ b/data/financial_statements/socf/WBA.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+  <si>
+    <t>2022-11-30</t>
+  </si>
+  <si>
+    <t>2022-08-31</t>
+  </si>
+  <si>
+    <t>2022-05-31</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>2020-02-29</t>
+  </si>
+  <si>
+    <t>2019-11-30</t>
+  </si>
+  <si>
+    <t>2019-08-31</t>
+  </si>
+  <si>
+    <t>2019-05-31</t>
+  </si>
+  <si>
+    <t>2019-02-28</t>
+  </si>
+  <si>
+    <t>2018-11-30</t>
+  </si>
+  <si>
+    <t>2018-08-31</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2018-02-28</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>2017-08-31</t>
+  </si>
+  <si>
+    <t>2017-05-31</t>
+  </si>
+  <si>
+    <t>2017-02-28</t>
+  </si>
+  <si>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2016-08-31</t>
+  </si>
+  <si>
+    <t>2016-05-31</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-05-31</t>
+  </si>
+  <si>
+    <t>2015-02-28</t>
+  </si>
+  <si>
+    <t>2014-11-30</t>
+  </si>
+  <si>
+    <t>2014-08-31</t>
+  </si>
+  <si>
+    <t>2014-05-31</t>
+  </si>
+  <si>
+    <t>2014-02-28</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2013-08-31</t>
+  </si>
+  <si>
+    <t>2013-05-31</t>
+  </si>
+  <si>
+    <t>2013-02-28</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -119,9 +239,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -174,12 +291,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -484,147 +598,147 @@
   <sheetData>
     <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44895</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44804</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44712</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44620</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44530</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44439</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44347</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44255</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44165</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44074</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43982</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43890</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43799</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43708</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43616</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43524</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43434</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43343</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43251</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43159</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43069</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42978</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42886</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42794</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42704</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42613</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42521</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42429</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42338</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42247</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42155</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42063</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41973</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41882</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41790</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41698</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41608</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41517</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41425</v>
-      </c>
-      <c r="AO1" s="2">
-        <v>41333</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
-        <v>-3816000000</v>
+        <v>-3722000000</v>
       </c>
       <c r="C2">
-        <v>-501000000</v>
+        <v>-416000000</v>
       </c>
       <c r="D2">
-        <v>229000000</v>
+        <v>289000000</v>
       </c>
       <c r="E2">
-        <v>806000000</v>
+        <v>884000000</v>
       </c>
       <c r="F2">
-        <v>3531000000</v>
+        <v>3580000000</v>
       </c>
       <c r="G2">
         <v>613000000</v>
@@ -733,8 +847,8 @@
       </c>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
         <v>495000000</v>
@@ -858,8 +972,8 @@
       </c>
     </row>
     <row r="4" spans="1:41">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
         <v>-2539000000</v>
@@ -983,8 +1097,8 @@
       </c>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
         <v>151000000</v>
@@ -1108,8 +1222,8 @@
       </c>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
         <v>-918000000</v>
@@ -1233,8 +1347,8 @@
       </c>
     </row>
     <row r="7" spans="1:41">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
         <v>867000000</v>
@@ -1358,26 +1472,26 @@
       </c>
     </row>
     <row r="8" spans="1:41">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
-        <v>-269000000</v>
+        <v>6225000000</v>
       </c>
       <c r="C8">
-        <v>-523000000</v>
+        <v>224000000</v>
       </c>
       <c r="D8">
-        <v>721000000</v>
+        <v>114000000</v>
       </c>
       <c r="E8">
-        <v>-1289000000</v>
+        <v>-77000000</v>
       </c>
       <c r="F8">
-        <v>1335000000</v>
+        <v>-399000000</v>
       </c>
       <c r="G8">
-        <v>-85000000</v>
+        <v>618000000</v>
       </c>
       <c r="H8">
         <v>174000000</v>
@@ -1483,8 +1597,8 @@
       </c>
     </row>
     <row r="9" spans="1:41">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
         <v>153000000</v>
@@ -1608,26 +1722,26 @@
       </c>
     </row>
     <row r="10" spans="1:41">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
-        <v>6368000000</v>
+        <v>-126000000</v>
       </c>
       <c r="C10">
-        <v>-395000000</v>
+        <v>-197000000</v>
       </c>
       <c r="D10">
-        <v>184000000</v>
+        <v>446000000</v>
       </c>
       <c r="E10">
-        <v>-160000000</v>
+        <v>-90000000</v>
       </c>
       <c r="F10">
-        <v>70000000</v>
+        <v>-94000000</v>
       </c>
       <c r="G10">
-        <v>211000000</v>
+        <v>-232000000</v>
       </c>
       <c r="H10">
         <v>-81000000</v>
@@ -1733,8 +1847,8 @@
       </c>
     </row>
     <row r="11" spans="1:41">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
         <v>493000000</v>
@@ -1743,16 +1857,16 @@
         <v>86000000</v>
       </c>
       <c r="D11">
-        <v>1628000000</v>
+        <v>1629000000</v>
       </c>
       <c r="E11">
-        <v>1087000000</v>
+        <v>1085000000</v>
       </c>
       <c r="F11">
-        <v>1098000000</v>
+        <v>1099000000</v>
       </c>
       <c r="G11">
-        <v>1246000000</v>
+        <v>1245000000</v>
       </c>
       <c r="H11">
         <v>1754000000</v>
@@ -1858,8 +1972,8 @@
       </c>
     </row>
     <row r="12" spans="1:41">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
         <v>-201000000</v>
@@ -1980,8 +2094,8 @@
       </c>
     </row>
     <row r="13" spans="1:41">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1988000000</v>
@@ -1993,13 +2107,13 @@
         <v>-122000000</v>
       </c>
       <c r="E13">
-        <v>-2226000000</v>
+        <v>-118000000</v>
       </c>
       <c r="F13">
         <v>-1800000000</v>
       </c>
       <c r="G13">
-        <v>-37000000</v>
+        <v>5490000000</v>
       </c>
       <c r="H13">
         <v>-80000000</v>
@@ -2102,8 +2216,8 @@
       </c>
     </row>
     <row r="14" spans="1:41">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="AG14">
         <v>1000000</v>
@@ -2131,8 +2245,8 @@
       </c>
     </row>
     <row r="15" spans="1:41">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AA15">
         <v>-1191000000</v>
@@ -2157,26 +2271,26 @@
       </c>
     </row>
     <row r="16" spans="1:41">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
         <v>70000000</v>
       </c>
       <c r="C16">
-        <v>-520000000</v>
+        <v>341000000</v>
       </c>
       <c r="D16">
-        <v>801000000</v>
+        <v>1077000000</v>
       </c>
       <c r="E16">
-        <v>22000000</v>
+        <v>37000000</v>
       </c>
       <c r="F16">
-        <v>88000000</v>
+        <v>95000000</v>
       </c>
       <c r="G16">
-        <v>-3707000000</v>
+        <v>107000000</v>
       </c>
       <c r="H16">
         <v>194000000</v>
@@ -2276,20 +2390,20 @@
       </c>
     </row>
     <row r="17" spans="1:41">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
         <v>1858000000</v>
       </c>
       <c r="C17">
-        <v>197000000</v>
+        <v>198000000</v>
       </c>
       <c r="D17">
         <v>919000000</v>
       </c>
       <c r="E17">
-        <v>-2331000000</v>
+        <v>-223000000</v>
       </c>
       <c r="F17">
         <v>-1958000000</v>
@@ -2401,8 +2515,8 @@
       </c>
     </row>
     <row r="18" spans="1:41">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B18">
         <v>28000000</v>
@@ -2423,7 +2537,7 @@
         <v>-6666000000</v>
       </c>
       <c r="H18">
-        <v>-846000000</v>
+        <v>2841000000</v>
       </c>
       <c r="I18">
         <v>229000000</v>
@@ -2520,8 +2634,8 @@
       </c>
     </row>
     <row r="19" spans="1:41">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
         <v>-144000000</v>
@@ -2645,8 +2759,8 @@
       </c>
     </row>
     <row r="20" spans="1:41">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
         <v>-415000000</v>
@@ -2770,29 +2884,29 @@
       </c>
     </row>
     <row r="21" spans="1:41">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
         <v>-69000000</v>
       </c>
       <c r="C21">
-        <v>-95000000</v>
+        <v>-861000000</v>
       </c>
       <c r="D21">
-        <v>-825000000</v>
+        <v>-276000000</v>
       </c>
       <c r="E21">
-        <v>22000000</v>
+        <v>-2123000000</v>
       </c>
       <c r="F21">
-        <v>-2546000000</v>
+        <v>-7000000</v>
       </c>
       <c r="G21">
-        <v>-4090000000</v>
+        <v>-127000000</v>
       </c>
       <c r="H21">
-        <v>20000000</v>
+        <v>-3667000000</v>
       </c>
       <c r="I21">
         <v>-138000000</v>
@@ -2895,8 +3009,8 @@
       </c>
     </row>
     <row r="22" spans="1:41">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
         <v>-599000000</v>
@@ -2908,7 +3022,7 @@
         <v>-16000000</v>
       </c>
       <c r="E22">
-        <v>-1000000000</v>
+        <v>-3108000000</v>
       </c>
       <c r="F22">
         <v>3877000000</v>
@@ -3020,8 +3134,8 @@
       </c>
     </row>
     <row r="23" spans="1:41">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>4000000</v>
@@ -3124,8 +3238,8 @@
       </c>
     </row>
     <row r="24" spans="1:41">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1756000000</v>
@@ -3249,8 +3363,8 @@
       </c>
     </row>
     <row r="25" spans="1:41">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
         <v>2558000000</v>
@@ -3374,8 +3488,8 @@
       </c>
     </row>
     <row r="26" spans="1:41">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
         <v>4314000000</v>
@@ -3499,8 +3613,8 @@
       </c>
     </row>
     <row r="27" spans="1:41">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
         <v>222000000</v>
@@ -3621,8 +3735,8 @@
       </c>
     </row>
     <row r="28" spans="1:41">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="B28">
         <v>-415000000</v>
@@ -3746,20 +3860,20 @@
       </c>
     </row>
     <row r="29" spans="1:41">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
-        <v>0.1936</v>
+        <v>0.1935</v>
       </c>
       <c r="C29">
-        <v>0.3803</v>
+        <v>0.38</v>
       </c>
       <c r="D29">
         <v>0.2986</v>
       </c>
       <c r="E29">
-        <v>0.3451</v>
+        <v>0.3449</v>
       </c>
       <c r="F29">
         <v>0.3097</v>
@@ -3871,8 +3985,8 @@
       </c>
     </row>
     <row r="30" spans="1:41">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B30">
         <v>6352000000</v>
@@ -3996,8 +4110,8 @@
       </c>
     </row>
     <row r="31" spans="1:41">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="AA31">
         <v>-1191000000</v>
@@ -4031,8 +4145,8 @@
       </c>
     </row>
     <row r="32" spans="1:41">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="B32">
         <v>-144000000</v>
@@ -4156,8 +4270,8 @@
       </c>
     </row>
     <row r="33" spans="1:41">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
         <v>-144000000</v>
